--- a/scratch.xlsx
+++ b/scratch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otothekay\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otothekay\PycharmProjects\RBASE Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4674A3-1306-4226-82B2-ED96B62FD6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCC4C0-1C17-4F03-9436-3EAA1371DE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{33AABA2E-0D4B-4C3E-ADCF-FC4DDC2BA133}"/>
+    <workbookView xWindow="1290" yWindow="855" windowWidth="32295" windowHeight="15435" activeTab="2" xr2:uid="{33AABA2E-0D4B-4C3E-ADCF-FC4DDC2BA133}"/>
   </bookViews>
   <sheets>
     <sheet name="Shelters" sheetId="1" r:id="rId1"/>
@@ -208,14 +208,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13523,7 +13523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EC1E25-7E71-4B9A-84B6-9D84EAEDF163}">
   <dimension ref="D5:AD158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
@@ -13536,29 +13536,29 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
     </row>
     <row r="6" spans="5:27" x14ac:dyDescent="0.25">
       <c r="G6">
@@ -13626,7 +13626,7 @@
       </c>
     </row>
     <row r="7" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F7" cm="1">
@@ -13719,7 +13719,7 @@
       </c>
     </row>
     <row r="8" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8">
         <v>0.05</v>
       </c>
@@ -13809,7 +13809,7 @@
       </c>
     </row>
     <row r="9" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
+      <c r="E9" s="9"/>
       <c r="F9">
         <v>0.1</v>
       </c>
@@ -13899,7 +13899,7 @@
       </c>
     </row>
     <row r="10" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+      <c r="E10" s="9"/>
       <c r="F10">
         <v>0.15</v>
       </c>
@@ -13989,7 +13989,7 @@
       </c>
     </row>
     <row r="11" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+      <c r="E11" s="9"/>
       <c r="F11">
         <v>0.2</v>
       </c>
@@ -14079,7 +14079,7 @@
       </c>
     </row>
     <row r="12" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
+      <c r="E12" s="9"/>
       <c r="F12">
         <v>0.25</v>
       </c>
@@ -14169,7 +14169,7 @@
       </c>
     </row>
     <row r="13" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+      <c r="E13" s="9"/>
       <c r="F13">
         <v>0.3</v>
       </c>
@@ -14259,7 +14259,7 @@
       </c>
     </row>
     <row r="14" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+      <c r="E14" s="9"/>
       <c r="F14">
         <v>0.35</v>
       </c>
@@ -14349,7 +14349,7 @@
       </c>
     </row>
     <row r="15" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+      <c r="E15" s="9"/>
       <c r="F15">
         <v>0.4</v>
       </c>
@@ -14439,7 +14439,7 @@
       </c>
     </row>
     <row r="16" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
+      <c r="E16" s="9"/>
       <c r="F16">
         <v>0.45</v>
       </c>
@@ -14529,7 +14529,7 @@
       </c>
     </row>
     <row r="17" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
+      <c r="E17" s="9"/>
       <c r="F17">
         <v>0.5</v>
       </c>
@@ -14619,7 +14619,7 @@
       </c>
     </row>
     <row r="18" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E18" s="7"/>
+      <c r="E18" s="9"/>
       <c r="F18">
         <v>0.55000000000000004</v>
       </c>
@@ -14709,7 +14709,7 @@
       </c>
     </row>
     <row r="19" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
+      <c r="E19" s="9"/>
       <c r="F19">
         <v>0.6</v>
       </c>
@@ -14799,7 +14799,7 @@
       </c>
     </row>
     <row r="20" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E20" s="7"/>
+      <c r="E20" s="9"/>
       <c r="F20">
         <v>0.65</v>
       </c>
@@ -14889,7 +14889,7 @@
       </c>
     </row>
     <row r="21" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E21" s="7"/>
+      <c r="E21" s="9"/>
       <c r="F21">
         <v>0.7</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J16:AA27" si="3">J$6*$F21</f>
+        <f t="shared" ref="J21:AA27" si="3">J$6*$F21</f>
         <v>0.105</v>
       </c>
       <c r="K21">
@@ -14979,7 +14979,7 @@
       </c>
     </row>
     <row r="22" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E22" s="7"/>
+      <c r="E22" s="9"/>
       <c r="F22">
         <v>0.75</v>
       </c>
@@ -15069,7 +15069,7 @@
       </c>
     </row>
     <row r="23" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E23" s="7"/>
+      <c r="E23" s="9"/>
       <c r="F23">
         <v>0.8</v>
       </c>
@@ -15159,7 +15159,7 @@
       </c>
     </row>
     <row r="24" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E24" s="7"/>
+      <c r="E24" s="9"/>
       <c r="F24">
         <v>0.85</v>
       </c>
@@ -15249,7 +15249,7 @@
       </c>
     </row>
     <row r="25" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E25" s="7"/>
+      <c r="E25" s="9"/>
       <c r="F25">
         <v>0.9</v>
       </c>
@@ -15339,7 +15339,7 @@
       </c>
     </row>
     <row r="26" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E26" s="7"/>
+      <c r="E26" s="9"/>
       <c r="F26">
         <v>0.95</v>
       </c>
@@ -15429,7 +15429,7 @@
       </c>
     </row>
     <row r="27" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E27" s="7"/>
+      <c r="E27" s="9"/>
       <c r="F27">
         <v>1</v>
       </c>
@@ -15582,7 +15582,7 @@
         <f>F34*0.1</f>
         <v>0.1</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="6">
         <f>$D$34/($D$34+F34)</f>
         <v>0.92307692307692313</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <f>($AD$33*N34+$AD$34*O34+$AD$35*P34+$AD$36*Q34)/SUM(N34:Q34)</f>
+        <f t="shared" ref="T34:T40" si="4">($AD$33*N34+$AD$34*O34+$AD$35*P34+$AD$36*Q34)/SUM(N34:Q34)</f>
         <v>1</v>
       </c>
       <c r="U34">
@@ -15641,15 +15641,15 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G98" si="4">F35*0.1</f>
+        <f t="shared" ref="G35:G98" si="5">F35*0.1</f>
         <v>0.2</v>
       </c>
-      <c r="H35" s="8">
-        <f t="shared" ref="H35:H98" si="5">$D$34/($D$34+F35)</f>
+      <c r="H35" s="6">
+        <f t="shared" ref="H35:H98" si="6">$D$34/($D$34+F35)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:I98" si="6">H35*78000000</f>
+        <f t="shared" ref="I35:I98" si="7">H35*78000000</f>
         <v>66857142.857142851</v>
       </c>
       <c r="N35">
@@ -15662,18 +15662,18 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" ref="Q35:Q55" si="7">$D$34-P35-O35-N35</f>
+        <f t="shared" ref="Q35:Q40" si="8">$D$34-P35-O35-N35</f>
         <v>11</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
-        <f t="shared" ref="S35:S55" si="8">7.8*N35 + 3.6*O35 + 0.4*P35 + 0.1*R35</f>
+        <f t="shared" ref="S35:S40" si="9">7.8*N35 + 3.6*O35 + 0.4*P35 + 0.1*R35</f>
         <v>7.8</v>
       </c>
       <c r="T35">
-        <f>($AD$33*N35+$AD$34*O35+$AD$35*P35+$AD$36*Q35)/SUM(N35:Q35)</f>
+        <f t="shared" si="4"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="U35">
@@ -15685,11 +15685,11 @@
         <v>0.93333333333333324</v>
       </c>
       <c r="Y35">
-        <f t="shared" ref="Y35:Y40" si="9">$W$34-W35</f>
+        <f t="shared" ref="Y35:Y40" si="10">$W$34-W35</f>
         <v>6.6666666666666763E-2</v>
       </c>
       <c r="Z35">
-        <f t="shared" ref="Z35:Z40" si="10">Y35/S35</f>
+        <f t="shared" ref="Z35:Z39" si="11">Y35/S35</f>
         <v>8.54700854700856E-3</v>
       </c>
       <c r="AC35" t="s">
@@ -15704,15 +15704,15 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H36" s="8">
-        <f t="shared" si="5"/>
+      <c r="H36" s="6">
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62400000</v>
       </c>
       <c r="N36">
@@ -15725,34 +15725,34 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R36">
         <v>1</v>
       </c>
       <c r="S36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.8999999999999995</v>
       </c>
       <c r="T36">
-        <f>($AD$33*N36+$AD$34*O36+$AD$35*P36+$AD$36*Q36)/SUM(N36:Q36)</f>
+        <f t="shared" si="4"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U35:U55" si="11">$D$34/($D$34+R36)</f>
+        <f t="shared" ref="U36:U40" si="12">$D$34/($D$34+R36)</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="W36">
-        <f t="shared" ref="W35:W55" si="12">U36*T36</f>
+        <f t="shared" ref="W36:W40" si="13">U36*T36</f>
         <v>0.86153846153846148</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.13846153846153852</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7526777020447915E-2</v>
       </c>
       <c r="AC36" t="s">
@@ -15767,15 +15767,15 @@
         <v>4</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="H37" s="8">
-        <f t="shared" si="5"/>
+      <c r="H37" s="6">
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58500000</v>
       </c>
       <c r="N37">
@@ -15788,34 +15788,34 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
       <c r="T37">
-        <f>($AD$33*N37+$AD$34*O37+$AD$35*P37+$AD$36*Q37)/SUM(N37:Q37)</f>
+        <f t="shared" si="4"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="U37">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="13"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="10"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="Z37">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="12"/>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="9"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="10"/>
         <v>1.1574074074074063E-2</v>
       </c>
     </row>
@@ -15824,15 +15824,15 @@
         <v>5</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H38" s="8">
-        <f t="shared" si="5"/>
+      <c r="H38" s="6">
+        <f t="shared" si="6"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55058823.52941177</v>
       </c>
       <c r="N38">
@@ -15845,34 +15845,34 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7</v>
       </c>
       <c r="T38">
-        <f>($AD$33*N38+$AD$34*O38+$AD$35*P38+$AD$36*Q38)/SUM(N38:Q38)</f>
+        <f t="shared" si="4"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="U38">
+        <f t="shared" si="12"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="13"/>
+        <v>0.88461538461538469</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="10"/>
+        <v>0.11538461538461531</v>
+      </c>
+      <c r="Z38">
         <f t="shared" si="11"/>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="12"/>
-        <v>0.88461538461538469</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="9"/>
-        <v>0.11538461538461531</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="10"/>
         <v>3.1185031185031162E-2</v>
       </c>
     </row>
@@ -15881,15 +15881,15 @@
         <v>6</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="H39" s="8">
-        <f t="shared" si="5"/>
+      <c r="H39" s="6">
+        <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52000000</v>
       </c>
       <c r="N39">
@@ -15902,34 +15902,34 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
       <c r="T39">
-        <f>($AD$33*N39+$AD$34*O39+$AD$35*P39+$AD$36*Q39)/SUM(N39:Q39)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U39">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="W39">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
+      <c r="W39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
       <c r="Y39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15938,15 +15938,15 @@
         <v>7</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="H40" s="8">
-        <f t="shared" si="5"/>
+      <c r="H40" s="6">
+        <f t="shared" si="6"/>
         <v>0.63157894736842102</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49263157.894736841</v>
       </c>
       <c r="N40">
@@ -15959,30 +15959,30 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="R40">
         <v>1</v>
       </c>
       <c r="S40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="T40">
-        <f>($AD$33*N40+$AD$34*O40+$AD$35*P40+$AD$36*Q40)/SUM(N40:Q40)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U40">
-        <f t="shared" si="11"/>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="W40">
         <f t="shared" si="12"/>
         <v>0.92307692307692313</v>
       </c>
+      <c r="W40">
+        <f t="shared" si="13"/>
+        <v>0.92307692307692313</v>
+      </c>
       <c r="Y40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="Z40">
@@ -15995,15 +15995,15 @@
         <v>8</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="H41" s="8">
-        <f t="shared" si="5"/>
+      <c r="H41" s="6">
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46800000</v>
       </c>
     </row>
@@ -16012,15 +16012,15 @@
         <v>9</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="H42" s="8">
-        <f t="shared" si="5"/>
+      <c r="H42" s="6">
+        <f t="shared" si="6"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44571428.571428567</v>
       </c>
     </row>
@@ -16029,15 +16029,15 @@
         <v>10</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H43" s="8">
-        <f t="shared" si="5"/>
+      <c r="H43" s="6">
+        <f t="shared" si="6"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42545454.545454539</v>
       </c>
     </row>
@@ -16046,15 +16046,15 @@
         <v>11</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H44" s="8">
-        <f t="shared" si="5"/>
+      <c r="H44" s="6">
+        <f t="shared" si="6"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40695652.173913039</v>
       </c>
     </row>
@@ -16063,15 +16063,15 @@
         <v>12</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="H45" s="8">
-        <f t="shared" si="5"/>
+      <c r="H45" s="6">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39000000</v>
       </c>
     </row>
@@ -16080,15 +16080,15 @@
         <v>13</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
-      <c r="H46" s="8">
-        <f t="shared" si="5"/>
+      <c r="H46" s="6">
+        <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37440000</v>
       </c>
     </row>
@@ -16097,15 +16097,15 @@
         <v>14</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="H47" s="8">
-        <f t="shared" si="5"/>
+      <c r="H47" s="6">
+        <f t="shared" si="6"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36000000</v>
       </c>
     </row>
@@ -16114,15 +16114,15 @@
         <v>15</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="H48" s="8">
-        <f t="shared" si="5"/>
+      <c r="H48" s="6">
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34666666.666666664</v>
       </c>
     </row>
@@ -16131,15 +16131,15 @@
         <v>16</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="H49" s="8">
-        <f t="shared" si="5"/>
+      <c r="H49" s="6">
+        <f t="shared" si="6"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33428571.428571425</v>
       </c>
     </row>
@@ -16148,15 +16148,15 @@
         <v>17</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7000000000000002</v>
       </c>
-      <c r="H50" s="8">
-        <f t="shared" si="5"/>
+      <c r="H50" s="6">
+        <f t="shared" si="6"/>
         <v>0.41379310344827586</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32275862.068965517</v>
       </c>
     </row>
@@ -16165,15 +16165,15 @@
         <v>18</v>
       </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8</v>
       </c>
-      <c r="H51" s="8">
-        <f t="shared" si="5"/>
+      <c r="H51" s="6">
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31200000</v>
       </c>
     </row>
@@ -16182,15 +16182,15 @@
         <v>19</v>
       </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9000000000000001</v>
       </c>
-      <c r="H52" s="8">
-        <f t="shared" si="5"/>
+      <c r="H52" s="6">
+        <f t="shared" si="6"/>
         <v>0.38709677419354838</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30193548.387096774</v>
       </c>
     </row>
@@ -16199,15 +16199,15 @@
         <v>20</v>
       </c>
       <c r="G53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H53" s="8">
-        <f t="shared" si="5"/>
+      <c r="H53" s="6">
+        <f t="shared" si="6"/>
         <v>0.375</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29250000</v>
       </c>
     </row>
@@ -16219,12 +16219,12 @@
         <f>F54*0.1</f>
         <v>2.1</v>
       </c>
-      <c r="H54" s="8">
-        <f t="shared" si="5"/>
+      <c r="H54" s="6">
+        <f t="shared" si="6"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28363636.363636363</v>
       </c>
     </row>
@@ -16233,15 +16233,15 @@
         <v>22</v>
       </c>
       <c r="G55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H55" s="8">
-        <f t="shared" si="5"/>
+      <c r="H55" s="6">
+        <f t="shared" si="6"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27529411.764705885</v>
       </c>
     </row>
@@ -16250,15 +16250,15 @@
         <v>23</v>
       </c>
       <c r="G56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="H56" s="8">
-        <f t="shared" si="5"/>
+      <c r="H56" s="6">
+        <f t="shared" si="6"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26742857.142857142</v>
       </c>
     </row>
@@ -16267,15 +16267,15 @@
         <v>24</v>
       </c>
       <c r="G57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H57" s="8">
-        <f t="shared" si="5"/>
+      <c r="H57" s="6">
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26000000</v>
       </c>
     </row>
@@ -16284,15 +16284,15 @@
         <v>25</v>
       </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="H58" s="8">
-        <f t="shared" si="5"/>
+      <c r="H58" s="6">
+        <f t="shared" si="6"/>
         <v>0.32432432432432434</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25297297.297297299</v>
       </c>
     </row>
@@ -16301,15 +16301,15 @@
         <v>26</v>
       </c>
       <c r="G59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6</v>
       </c>
-      <c r="H59" s="8">
-        <f t="shared" si="5"/>
+      <c r="H59" s="6">
+        <f t="shared" si="6"/>
         <v>0.31578947368421051</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24631578.947368421</v>
       </c>
     </row>
@@ -16318,15 +16318,15 @@
         <v>27</v>
       </c>
       <c r="G60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7</v>
       </c>
-      <c r="H60" s="8">
-        <f t="shared" si="5"/>
+      <c r="H60" s="6">
+        <f t="shared" si="6"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24000000</v>
       </c>
     </row>
@@ -16335,15 +16335,15 @@
         <v>28</v>
       </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="H61" s="8">
-        <f t="shared" si="5"/>
+      <c r="H61" s="6">
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23400000</v>
       </c>
     </row>
@@ -16355,8 +16355,8 @@
         <f>F62*0.1</f>
         <v>2.9000000000000004</v>
       </c>
-      <c r="H62" s="8">
-        <f t="shared" si="5"/>
+      <c r="H62" s="6">
+        <f t="shared" si="6"/>
         <v>0.29268292682926828</v>
       </c>
       <c r="I62" s="1">
@@ -16369,15 +16369,15 @@
         <v>30</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="H63" s="8">
-        <f t="shared" si="5"/>
+      <c r="H63" s="6">
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22285714.285714284</v>
       </c>
     </row>
@@ -16386,15 +16386,15 @@
         <v>31</v>
       </c>
       <c r="G64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1</v>
       </c>
-      <c r="H64" s="8">
-        <f t="shared" si="5"/>
+      <c r="H64" s="6">
+        <f t="shared" si="6"/>
         <v>0.27906976744186046</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21767441.860465117</v>
       </c>
     </row>
@@ -16403,15 +16403,15 @@
         <v>32</v>
       </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2</v>
       </c>
-      <c r="H65" s="8">
-        <f t="shared" si="5"/>
+      <c r="H65" s="6">
+        <f t="shared" si="6"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21272727.27272727</v>
       </c>
     </row>
@@ -16420,15 +16420,15 @@
         <v>33</v>
       </c>
       <c r="G66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="H66" s="8">
-        <f t="shared" si="5"/>
+      <c r="H66" s="6">
+        <f t="shared" si="6"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20800000</v>
       </c>
     </row>
@@ -16437,15 +16437,15 @@
         <v>34</v>
       </c>
       <c r="G67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="H67" s="8">
-        <f t="shared" si="5"/>
+      <c r="H67" s="6">
+        <f t="shared" si="6"/>
         <v>0.2608695652173913</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20347826.08695652</v>
       </c>
     </row>
@@ -16454,15 +16454,15 @@
         <v>35</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="H68" s="8">
-        <f t="shared" si="5"/>
+      <c r="H68" s="6">
+        <f t="shared" si="6"/>
         <v>0.25531914893617019</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19914893.617021274</v>
       </c>
     </row>
@@ -16471,15 +16471,15 @@
         <v>36</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
-      <c r="H69" s="8">
-        <f t="shared" si="5"/>
+      <c r="H69" s="6">
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19500000</v>
       </c>
     </row>
@@ -16488,15 +16488,15 @@
         <v>37</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7</v>
       </c>
-      <c r="H70" s="8">
-        <f t="shared" si="5"/>
+      <c r="H70" s="6">
+        <f t="shared" si="6"/>
         <v>0.24489795918367346</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19102040.816326529</v>
       </c>
     </row>
@@ -16505,15 +16505,15 @@
         <v>38</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8000000000000003</v>
       </c>
-      <c r="H71" s="8">
-        <f t="shared" si="5"/>
+      <c r="H71" s="6">
+        <f t="shared" si="6"/>
         <v>0.24</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18720000</v>
       </c>
     </row>
@@ -16522,15 +16522,15 @@
         <v>39</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="H72" s="8">
-        <f t="shared" si="5"/>
+      <c r="H72" s="6">
+        <f t="shared" si="6"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18352941.176470589</v>
       </c>
     </row>
@@ -16539,15 +16539,15 @@
         <v>40</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H73" s="8">
-        <f t="shared" si="5"/>
+      <c r="H73" s="6">
+        <f t="shared" si="6"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18000000</v>
       </c>
     </row>
@@ -16556,15 +16556,15 @@
         <v>41</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="H74" s="8">
-        <f t="shared" si="5"/>
+      <c r="H74" s="6">
+        <f t="shared" si="6"/>
         <v>0.22641509433962265</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17660377.358490568</v>
       </c>
     </row>
@@ -16573,15 +16573,15 @@
         <v>42</v>
       </c>
       <c r="G75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2</v>
       </c>
-      <c r="H75" s="8">
-        <f t="shared" si="5"/>
+      <c r="H75" s="6">
+        <f t="shared" si="6"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17333333.333333332</v>
       </c>
     </row>
@@ -16590,15 +16590,15 @@
         <v>43</v>
       </c>
       <c r="G76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
-      <c r="H76" s="8">
-        <f t="shared" si="5"/>
+      <c r="H76" s="6">
+        <f t="shared" si="6"/>
         <v>0.21818181818181817</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17018181.818181816</v>
       </c>
     </row>
@@ -16610,8 +16610,8 @@
         <f>F77*0.1</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="H77" s="8">
-        <f t="shared" si="5"/>
+      <c r="H77" s="6">
+        <f t="shared" si="6"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="I77" s="1">
@@ -16624,15 +16624,15 @@
         <v>45</v>
       </c>
       <c r="G78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="H78" s="8">
-        <f t="shared" si="5"/>
+      <c r="H78" s="6">
+        <f t="shared" si="6"/>
         <v>0.21052631578947367</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16421052.631578946</v>
       </c>
     </row>
@@ -16641,15 +16641,15 @@
         <v>46</v>
       </c>
       <c r="G79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="H79" s="8">
-        <f t="shared" si="5"/>
+      <c r="H79" s="6">
+        <f t="shared" si="6"/>
         <v>0.20689655172413793</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16137931.034482758</v>
       </c>
     </row>
@@ -16658,15 +16658,15 @@
         <v>47</v>
       </c>
       <c r="G80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7</v>
       </c>
-      <c r="H80" s="8">
-        <f t="shared" si="5"/>
+      <c r="H80" s="6">
+        <f t="shared" si="6"/>
         <v>0.20338983050847459</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15864406.779661018</v>
       </c>
     </row>
@@ -16675,15 +16675,15 @@
         <v>48</v>
       </c>
       <c r="G81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="H81" s="8">
-        <f t="shared" si="5"/>
+      <c r="H81" s="6">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15600000</v>
       </c>
     </row>
@@ -16692,15 +16692,15 @@
         <v>49</v>
       </c>
       <c r="G82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="H82" s="8">
-        <f t="shared" si="5"/>
+      <c r="H82" s="6">
+        <f t="shared" si="6"/>
         <v>0.19672131147540983</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15344262.295081967</v>
       </c>
     </row>
@@ -16709,15 +16709,15 @@
         <v>50</v>
       </c>
       <c r="G83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="H83" s="8">
-        <f t="shared" si="5"/>
+      <c r="H83" s="6">
+        <f t="shared" si="6"/>
         <v>0.19354838709677419</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15096774.193548387</v>
       </c>
     </row>
@@ -16726,15 +16726,15 @@
         <v>51</v>
       </c>
       <c r="G84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1000000000000005</v>
       </c>
-      <c r="H84" s="8">
-        <f t="shared" si="5"/>
+      <c r="H84" s="6">
+        <f t="shared" si="6"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14857142.857142856</v>
       </c>
     </row>
@@ -16743,15 +16743,15 @@
         <v>52</v>
       </c>
       <c r="G85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2</v>
       </c>
-      <c r="H85" s="8">
-        <f t="shared" si="5"/>
+      <c r="H85" s="6">
+        <f t="shared" si="6"/>
         <v>0.1875</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14625000</v>
       </c>
     </row>
@@ -16760,15 +16760,15 @@
         <v>53</v>
       </c>
       <c r="G86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3000000000000007</v>
       </c>
-      <c r="H86" s="8">
-        <f t="shared" si="5"/>
+      <c r="H86" s="6">
+        <f t="shared" si="6"/>
         <v>0.18461538461538463</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14400000</v>
       </c>
     </row>
@@ -16780,8 +16780,8 @@
         <f>F87*0.1</f>
         <v>5.4</v>
       </c>
-      <c r="H87" s="8">
-        <f t="shared" si="5"/>
+      <c r="H87" s="6">
+        <f t="shared" si="6"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="I87" s="1">
@@ -16794,15 +16794,15 @@
         <v>55</v>
       </c>
       <c r="G88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="H88" s="8">
-        <f t="shared" si="5"/>
+      <c r="H88" s="6">
+        <f t="shared" si="6"/>
         <v>0.17910447761194029</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13970149.253731342</v>
       </c>
     </row>
@@ -16811,15 +16811,15 @@
         <v>56</v>
       </c>
       <c r="G89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="H89" s="8">
-        <f t="shared" si="5"/>
+      <c r="H89" s="6">
+        <f t="shared" si="6"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13764705.882352943</v>
       </c>
     </row>
@@ -16828,15 +16828,15 @@
         <v>57</v>
       </c>
       <c r="G90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7</v>
       </c>
-      <c r="H90" s="8">
-        <f t="shared" si="5"/>
+      <c r="H90" s="6">
+        <f t="shared" si="6"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13565217.391304348</v>
       </c>
     </row>
@@ -16845,15 +16845,15 @@
         <v>58</v>
       </c>
       <c r="G91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8000000000000007</v>
       </c>
-      <c r="H91" s="8">
-        <f t="shared" si="5"/>
+      <c r="H91" s="6">
+        <f t="shared" si="6"/>
         <v>0.17142857142857143</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13371428.571428571</v>
       </c>
     </row>
@@ -16862,15 +16862,15 @@
         <v>59</v>
       </c>
       <c r="G92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9</v>
       </c>
-      <c r="H92" s="8">
-        <f t="shared" si="5"/>
+      <c r="H92" s="6">
+        <f t="shared" si="6"/>
         <v>0.16901408450704225</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13183098.591549296</v>
       </c>
     </row>
@@ -16879,15 +16879,15 @@
         <v>60</v>
       </c>
       <c r="G93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="H93" s="8">
-        <f t="shared" si="5"/>
+      <c r="H93" s="6">
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13000000</v>
       </c>
     </row>
@@ -16896,15 +16896,15 @@
         <v>61</v>
       </c>
       <c r="G94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1000000000000005</v>
       </c>
-      <c r="H94" s="8">
-        <f t="shared" si="5"/>
+      <c r="H94" s="6">
+        <f t="shared" si="6"/>
         <v>0.16438356164383561</v>
       </c>
       <c r="I94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12821917.808219178</v>
       </c>
     </row>
@@ -16913,15 +16913,15 @@
         <v>62</v>
       </c>
       <c r="G95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2</v>
       </c>
-      <c r="H95" s="8">
-        <f t="shared" si="5"/>
+      <c r="H95" s="6">
+        <f t="shared" si="6"/>
         <v>0.16216216216216217</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12648648.648648649</v>
       </c>
     </row>
@@ -16930,15 +16930,15 @@
         <v>63</v>
       </c>
       <c r="G96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="H96" s="8">
-        <f t="shared" si="5"/>
+      <c r="H96" s="6">
+        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12480000</v>
       </c>
     </row>
@@ -16947,15 +16947,15 @@
         <v>64</v>
       </c>
       <c r="G97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4</v>
       </c>
-      <c r="H97" s="8">
-        <f t="shared" si="5"/>
+      <c r="H97" s="6">
+        <f t="shared" si="6"/>
         <v>0.15789473684210525</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12315789.47368421</v>
       </c>
     </row>
@@ -16964,15 +16964,15 @@
         <v>65</v>
       </c>
       <c r="G98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
-      <c r="H98" s="8">
-        <f t="shared" si="5"/>
+      <c r="H98" s="6">
+        <f t="shared" si="6"/>
         <v>0.15584415584415584</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12155844.155844156</v>
       </c>
     </row>
@@ -16981,15 +16981,15 @@
         <v>66</v>
       </c>
       <c r="G99">
-        <f t="shared" ref="G99" si="13">F99*0.1</f>
+        <f t="shared" ref="G99" si="14">F99*0.1</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="H99" s="8">
-        <f t="shared" ref="H99:H158" si="14">$D$34/($D$34+F99)</f>
+      <c r="H99" s="6">
+        <f t="shared" ref="H99:H133" si="15">$D$34/($D$34+F99)</f>
         <v>0.15384615384615385</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" ref="I99" si="15">H99*78000000</f>
+        <f t="shared" ref="I99" si="16">H99*78000000</f>
         <v>12000000</v>
       </c>
     </row>
@@ -17001,8 +17001,8 @@
         <f>F100*0.1</f>
         <v>6.7</v>
       </c>
-      <c r="H100" s="8">
-        <f t="shared" si="14"/>
+      <c r="H100" s="6">
+        <f t="shared" si="15"/>
         <v>0.15189873417721519</v>
       </c>
       <c r="I100" s="1">
@@ -17015,15 +17015,15 @@
         <v>68</v>
       </c>
       <c r="G101">
-        <f t="shared" ref="G101:G117" si="16">F101*0.1</f>
+        <f t="shared" ref="G101:G117" si="17">F101*0.1</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="H101" s="8">
-        <f t="shared" si="14"/>
+      <c r="H101" s="6">
+        <f t="shared" si="15"/>
         <v>0.15</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" ref="I101:I117" si="17">H101*78000000</f>
+        <f t="shared" ref="I101:I117" si="18">H101*78000000</f>
         <v>11700000</v>
       </c>
     </row>
@@ -17032,15 +17032,15 @@
         <v>69</v>
       </c>
       <c r="G102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9</v>
       </c>
-      <c r="H102" s="8">
-        <f t="shared" si="14"/>
+      <c r="H102" s="6">
+        <f t="shared" si="15"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11555555.555555554</v>
       </c>
     </row>
@@ -17049,15 +17049,15 @@
         <v>70</v>
       </c>
       <c r="G103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="H103" s="8">
-        <f t="shared" si="14"/>
+      <c r="H103" s="6">
+        <f t="shared" si="15"/>
         <v>0.14634146341463414</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11414634.146341464</v>
       </c>
     </row>
@@ -17066,15 +17066,15 @@
         <v>71</v>
       </c>
       <c r="G104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.1000000000000005</v>
       </c>
-      <c r="H104" s="8">
-        <f t="shared" si="14"/>
+      <c r="H104" s="6">
+        <f t="shared" si="15"/>
         <v>0.14457831325301204</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11277108.433734939</v>
       </c>
     </row>
@@ -17083,15 +17083,15 @@
         <v>72</v>
       </c>
       <c r="G105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.2</v>
       </c>
-      <c r="H105" s="8">
-        <f t="shared" si="14"/>
+      <c r="H105" s="6">
+        <f t="shared" si="15"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11142857.142857142</v>
       </c>
     </row>
@@ -17100,15 +17100,15 @@
         <v>73</v>
       </c>
       <c r="G106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.3000000000000007</v>
       </c>
-      <c r="H106" s="8">
-        <f t="shared" si="14"/>
+      <c r="H106" s="6">
+        <f t="shared" si="15"/>
         <v>0.14117647058823529</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11011764.705882354</v>
       </c>
     </row>
@@ -17117,15 +17117,15 @@
         <v>74</v>
       </c>
       <c r="G107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4</v>
       </c>
-      <c r="H107" s="8">
-        <f t="shared" si="14"/>
+      <c r="H107" s="6">
+        <f t="shared" si="15"/>
         <v>0.13953488372093023</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10883720.930232558</v>
       </c>
     </row>
@@ -17134,15 +17134,15 @@
         <v>75</v>
       </c>
       <c r="G108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.5</v>
       </c>
-      <c r="H108" s="8">
-        <f t="shared" si="14"/>
+      <c r="H108" s="6">
+        <f t="shared" si="15"/>
         <v>0.13793103448275862</v>
       </c>
       <c r="I108" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10758620.689655172</v>
       </c>
     </row>
@@ -17151,15 +17151,15 @@
         <v>76</v>
       </c>
       <c r="G109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.6000000000000005</v>
       </c>
-      <c r="H109" s="8">
-        <f t="shared" si="14"/>
+      <c r="H109" s="6">
+        <f t="shared" si="15"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="I109" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10636363.636363635</v>
       </c>
     </row>
@@ -17168,15 +17168,15 @@
         <v>77</v>
       </c>
       <c r="G110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.7</v>
       </c>
-      <c r="H110" s="8">
-        <f t="shared" si="14"/>
+      <c r="H110" s="6">
+        <f t="shared" si="15"/>
         <v>0.1348314606741573</v>
       </c>
       <c r="I110" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10516853.932584269</v>
       </c>
     </row>
@@ -17185,15 +17185,15 @@
         <v>78</v>
       </c>
       <c r="G111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H111" s="8">
-        <f t="shared" si="14"/>
+      <c r="H111" s="6">
+        <f t="shared" si="15"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I111" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10400000</v>
       </c>
     </row>
@@ -17202,15 +17202,15 @@
         <v>79</v>
       </c>
       <c r="G112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.9</v>
       </c>
-      <c r="H112" s="8">
-        <f t="shared" si="14"/>
+      <c r="H112" s="6">
+        <f t="shared" si="15"/>
         <v>0.13186813186813187</v>
       </c>
       <c r="I112" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10285714.285714285</v>
       </c>
     </row>
@@ -17219,15 +17219,15 @@
         <v>80</v>
       </c>
       <c r="G113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="H113" s="8">
-        <f t="shared" si="14"/>
+      <c r="H113" s="6">
+        <f t="shared" si="15"/>
         <v>0.13043478260869565</v>
       </c>
       <c r="I113" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10173913.04347826</v>
       </c>
     </row>
@@ -17236,15 +17236,15 @@
         <v>81</v>
       </c>
       <c r="G114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.1</v>
       </c>
-      <c r="H114" s="8">
-        <f t="shared" si="14"/>
+      <c r="H114" s="6">
+        <f t="shared" si="15"/>
         <v>0.12903225806451613</v>
       </c>
       <c r="I114" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10064516.129032258</v>
       </c>
     </row>
@@ -17253,15 +17253,15 @@
         <v>82</v>
       </c>
       <c r="G115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.2000000000000011</v>
       </c>
-      <c r="H115" s="8">
-        <f t="shared" si="14"/>
+      <c r="H115" s="6">
+        <f t="shared" si="15"/>
         <v>0.1276595744680851</v>
       </c>
       <c r="I115" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9957446.8085106369</v>
       </c>
     </row>
@@ -17270,15 +17270,15 @@
         <v>83</v>
       </c>
       <c r="G116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="H116" s="8">
-        <f t="shared" si="14"/>
+      <c r="H116" s="6">
+        <f t="shared" si="15"/>
         <v>0.12631578947368421</v>
       </c>
       <c r="I116" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9852631.578947369</v>
       </c>
     </row>
@@ -17287,15 +17287,15 @@
         <v>84</v>
       </c>
       <c r="G117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.4</v>
       </c>
-      <c r="H117" s="8">
-        <f t="shared" si="14"/>
+      <c r="H117" s="6">
+        <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
       <c r="I117" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9750000</v>
       </c>
     </row>
@@ -17307,8 +17307,8 @@
         <f>F118*0.1</f>
         <v>8.5</v>
       </c>
-      <c r="H118" s="8">
-        <f t="shared" si="14"/>
+      <c r="H118" s="6">
+        <f t="shared" si="15"/>
         <v>0.12371134020618557</v>
       </c>
       <c r="I118" s="1">
@@ -17321,15 +17321,15 @@
         <v>86</v>
       </c>
       <c r="G119">
-        <f t="shared" ref="G119:G137" si="18">F119*0.1</f>
+        <f t="shared" ref="G119:G133" si="19">F119*0.1</f>
         <v>8.6</v>
       </c>
-      <c r="H119" s="8">
-        <f t="shared" si="14"/>
+      <c r="H119" s="6">
+        <f t="shared" si="15"/>
         <v>0.12244897959183673</v>
       </c>
       <c r="I119" s="1">
-        <f t="shared" ref="I119:I138" si="19">H119*78000000</f>
+        <f t="shared" ref="I119:I133" si="20">H119*78000000</f>
         <v>9551020.4081632644</v>
       </c>
     </row>
@@ -17338,15 +17338,15 @@
         <v>87</v>
       </c>
       <c r="G120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.7000000000000011</v>
       </c>
-      <c r="H120" s="8">
-        <f t="shared" si="14"/>
+      <c r="H120" s="6">
+        <f t="shared" si="15"/>
         <v>0.12121212121212122</v>
       </c>
       <c r="I120" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9454545.4545454551</v>
       </c>
     </row>
@@ -17355,15 +17355,15 @@
         <v>88</v>
       </c>
       <c r="G121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="H121" s="8">
-        <f t="shared" si="14"/>
+      <c r="H121" s="6">
+        <f t="shared" si="15"/>
         <v>0.12</v>
       </c>
       <c r="I121" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9360000</v>
       </c>
     </row>
@@ -17372,15 +17372,15 @@
         <v>89</v>
       </c>
       <c r="G122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.9</v>
       </c>
-      <c r="H122" s="8">
-        <f t="shared" si="14"/>
+      <c r="H122" s="6">
+        <f t="shared" si="15"/>
         <v>0.11881188118811881</v>
       </c>
       <c r="I122" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9267326.7326732669</v>
       </c>
     </row>
@@ -17389,15 +17389,15 @@
         <v>90</v>
       </c>
       <c r="G123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="H123" s="8">
-        <f t="shared" si="14"/>
+      <c r="H123" s="6">
+        <f t="shared" si="15"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="I123" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9176470.5882352944</v>
       </c>
     </row>
@@ -17406,15 +17406,15 @@
         <v>91</v>
       </c>
       <c r="G124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.1</v>
       </c>
-      <c r="H124" s="8">
-        <f t="shared" si="14"/>
+      <c r="H124" s="6">
+        <f t="shared" si="15"/>
         <v>0.11650485436893204</v>
       </c>
       <c r="I124" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9087378.6407766994</v>
       </c>
     </row>
@@ -17423,15 +17423,15 @@
         <v>92</v>
       </c>
       <c r="G125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="H125" s="8">
-        <f t="shared" si="14"/>
+      <c r="H125" s="6">
+        <f t="shared" si="15"/>
         <v>0.11538461538461539</v>
       </c>
       <c r="I125" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9000000</v>
       </c>
     </row>
@@ -17440,15 +17440,15 @@
         <v>93</v>
       </c>
       <c r="G126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="H126" s="8">
-        <f t="shared" si="14"/>
+      <c r="H126" s="6">
+        <f t="shared" si="15"/>
         <v>0.11428571428571428</v>
       </c>
       <c r="I126" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8914285.7142857146</v>
       </c>
     </row>
@@ -17457,15 +17457,15 @@
         <v>94</v>
       </c>
       <c r="G127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.4</v>
       </c>
-      <c r="H127" s="8">
-        <f t="shared" si="14"/>
+      <c r="H127" s="6">
+        <f t="shared" si="15"/>
         <v>0.11320754716981132</v>
       </c>
       <c r="I127" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8830188.6792452838</v>
       </c>
     </row>
@@ -17474,15 +17474,15 @@
         <v>95</v>
       </c>
       <c r="G128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.5</v>
       </c>
-      <c r="H128" s="8">
-        <f t="shared" si="14"/>
+      <c r="H128" s="6">
+        <f t="shared" si="15"/>
         <v>0.11214953271028037</v>
       </c>
       <c r="I128" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8747663.5514018685</v>
       </c>
     </row>
@@ -17491,15 +17491,15 @@
         <v>96</v>
       </c>
       <c r="G129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="H129" s="8">
-        <f t="shared" si="14"/>
+      <c r="H129" s="6">
+        <f t="shared" si="15"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="I129" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8666666.666666666</v>
       </c>
     </row>
@@ -17508,15 +17508,15 @@
         <v>97</v>
       </c>
       <c r="G130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.7000000000000011</v>
       </c>
-      <c r="H130" s="8">
-        <f t="shared" si="14"/>
+      <c r="H130" s="6">
+        <f t="shared" si="15"/>
         <v>0.11009174311926606</v>
       </c>
       <c r="I130" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8587155.963302752</v>
       </c>
     </row>
@@ -17525,15 +17525,15 @@
         <v>98</v>
       </c>
       <c r="G131">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="H131" s="8">
-        <f t="shared" si="14"/>
+      <c r="H131" s="6">
+        <f t="shared" si="15"/>
         <v>0.10909090909090909</v>
       </c>
       <c r="I131" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8509090.9090909082</v>
       </c>
     </row>
@@ -17542,15 +17542,15 @@
         <v>99</v>
       </c>
       <c r="G132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.9</v>
       </c>
-      <c r="H132" s="8">
-        <f t="shared" si="14"/>
+      <c r="H132" s="6">
+        <f t="shared" si="15"/>
         <v>0.10810810810810811</v>
       </c>
       <c r="I132" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8432432.4324324336</v>
       </c>
     </row>
@@ -17559,118 +17559,118 @@
         <v>100</v>
       </c>
       <c r="G133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="H133" s="8">
-        <f t="shared" si="14"/>
+      <c r="H133" s="6">
+        <f t="shared" si="15"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="I133" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8357142.8571428563</v>
       </c>
     </row>
     <row r="134" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H134" s="8"/>
+      <c r="H134" s="6"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H135" s="8"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H136" s="8"/>
+      <c r="H136" s="6"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H137" s="8"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H138" s="8"/>
+      <c r="H138" s="6"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H139" s="8"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H140" s="8"/>
+      <c r="H140" s="6"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H141" s="8"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H142" s="8"/>
+      <c r="H142" s="6"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H143" s="8"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H144" s="8"/>
+      <c r="H144" s="6"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H145" s="8"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H146" s="8"/>
+      <c r="H146" s="6"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H147" s="8"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H148" s="8"/>
+      <c r="H148" s="6"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H149" s="8"/>
+      <c r="H149" s="6"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H150" s="8"/>
+      <c r="H150" s="6"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H151" s="8"/>
+      <c r="H151" s="6"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H152" s="8"/>
+      <c r="H152" s="6"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H153" s="8"/>
+      <c r="H153" s="6"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H154" s="8"/>
+      <c r="H154" s="6"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H155" s="8"/>
+      <c r="H155" s="6"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H156" s="8"/>
+      <c r="H156" s="6"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H157" s="8"/>
+      <c r="H157" s="6"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="9"/>
+      <c r="H158" s="7"/>
       <c r="I158" s="4"/>
     </row>
   </sheetData>
